--- a/7rmart_Supermarket/src/test/resources/TestData.xlsx
+++ b/7rmart_Supermarket/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="13010" windowHeight="6080" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="ManageFooterText" sheetId="4" r:id="rId4"/>
     <sheet name="ManageContact" sheetId="5" r:id="rId5"/>
     <sheet name="ManageCategory" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +92,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Fruit</t>
+    <t>FRUITS</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1421,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1478,8 +1479,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1498,4 +1499,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/7rmart_Supermarket/src/test/resources/TestData.xlsx
+++ b/7rmart_Supermarket/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13010" windowHeight="6080" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="13010" windowHeight="6080" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -1374,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1404,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>9445965634</v>
+        <v>34596563</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>9656567077</v>
+        <v>9656567</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1479,7 +1479,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
